--- a/static/downloads/95 Bưu điện Tỉnh Sóc Trăng.xlsx
+++ b/static/downloads/95 Bưu điện Tỉnh Sóc Trăng.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B216"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2068,7 +2068,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>952173_huettk</t>
+          <t>953286_thontv</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>953286_thontv</t>
+          <t>954510_huyen</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>954510_huyen</t>
+          <t>954612_hienltd</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>954612_hienltd</t>
+          <t>954310_tul</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>954310_tul</t>
+          <t>954510_tthuy</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>954510_tthuy</t>
+          <t>951870_xe</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>951870_xe</t>
+          <t>951870_lanh</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>951870_lanh</t>
+          <t>952070_dan</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>952070_dan</t>
+          <t>952510_tan1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>952510_tan1</t>
+          <t>952849_ai1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>952849_ai1</t>
+          <t>954046_the</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>954046_the</t>
+          <t>953000_tran2</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>953000_tran2</t>
+          <t>954046_the1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>954046_the1</t>
+          <t>953500_ngan</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>953500_ngan</t>
+          <t>954090_ly1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>954090_ly1</t>
+          <t>952849_ai</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>952849_ai</t>
+          <t>953571_da</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>953571_da</t>
+          <t>951780_loc1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>951780_loc1</t>
+          <t>953580_tran</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>953580_tran</t>
+          <t>953371_lankt</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>953371_lankt</t>
+          <t>953268_thontv</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>953268_thontv</t>
+          <t>951700_aint</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>951700_aint</t>
+          <t>954252_uyenndp</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>954252_uyenndp</t>
+          <t>951780_loc</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>951780_loc</t>
+          <t>954100_khoa</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>954100_khoa</t>
+          <t>952129_tramntb</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>952129_tramntb</t>
+          <t>954252_phuong</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>954252_phuong</t>
+          <t>953080_khanh</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>953080_khanh</t>
+          <t>953500_duyntl</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>953500_duyntl</t>
+          <t>952700_nittd</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>952700_nittd</t>
+          <t>954100_an</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>954100_an</t>
+          <t>954090_ly</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>954090_ly</t>
+          <t>954612_hoa</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>954612_hoa</t>
+          <t>953680_tuoi</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>953680_tuoi</t>
+          <t>952070_my</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>952070_my</t>
+          <t>951860_diensth</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>951860_diensth</t>
+          <t>953840_hieu</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>953840_hieu</t>
+          <t>954310_huy</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>954310_huy</t>
+          <t>952117_thanh</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>952117_thanh</t>
+          <t>950000_linhbtk</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>950000_linhbtk</t>
+          <t>952801_diem1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>952801_diem1</t>
+          <t>952730_kieu</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>952730_kieu</t>
+          <t>952300_thuong</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>952300_thuong</t>
+          <t>953500_loi</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>953500_loi</t>
+          <t>954310_vannn</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>954310_vannn</t>
+          <t>952350_van</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>952350_van</t>
+          <t>951840_xuantht</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>951840_xuantht</t>
+          <t>953320_huyen</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>953320_huyen</t>
+          <t>952000_hientn</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>952000_hientn</t>
+          <t>954050_thue</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>954050_thue</t>
+          <t>952140_phuong</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>952140_phuong</t>
+          <t>951740_diep</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>951740_diep</t>
+          <t>954090_kham</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>954090_kham</t>
+          <t>952700_thuy</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>952700_thuy</t>
+          <t>954100_tonn</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>954100_tonn</t>
+          <t>954277_tamhv</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>954277_tamhv</t>
+          <t>952000_hienhn</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>952000_hienhn</t>
+          <t>950000_phuong2</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>950000_phuong2</t>
+          <t>954280_huynv</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>954280_huynv</t>
+          <t>951760_ngocdiep</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>951760_ngocdiep</t>
+          <t>953800_my</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>953800_my</t>
+          <t>952330_tran</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>952330_tran</t>
+          <t>952300_nhung</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>952300_nhung</t>
+          <t>953080_thao</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>953080_thao</t>
+          <t>951800_sen</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>951800_sen</t>
+          <t>953600_ven</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>953600_ven</t>
+          <t>954252_mytrang</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>954252_mytrang</t>
+          <t>952000_em1</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>952000_em1</t>
+          <t>954280_tamhv</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>954280_tamhv</t>
+          <t>951740_thao</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>951740_thao</t>
+          <t>954310_lienttb</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>954310_lienttb</t>
+          <t>952750_linhtt</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>952750_linhtt</t>
+          <t>952801_diem</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>952801_diem</t>
+          <t>952760_cu</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>952760_cu</t>
+          <t>954060_tamntt</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>954060_tamntt</t>
+          <t>954100_nguyenht</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>954100_nguyenht</t>
+          <t>951890_nhudnnt</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -2992,22 +2992,10 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>951890_nhudnnt</t>
+          <t>952300_thanh</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
-        <is>
-          <t>95_Bưu điện Tỉnh Sóc Trăng</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>952300_thanh</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
         <is>
           <t>95_Bưu điện Tỉnh Sóc Trăng</t>
         </is>
